--- a/Feature_Engineering/feature_encoding.xlsx
+++ b/Feature_Engineering/feature_encoding.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\E\Github\Data_Files\Feature_Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9C09C0-AD32-4977-A8BB-92F91B92F48C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC34206-57DA-4561-A222-92F6FDFA514A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0EBDB0EB-C638-42B7-9A29-1581CE7863BB}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="19">
   <si>
     <t>N</t>
   </si>
@@ -70,6 +70,21 @@
   </si>
   <si>
     <t>NonPremium</t>
+  </si>
+  <si>
+    <t>extremely dislike</t>
+  </si>
+  <si>
+    <t>dislike</t>
+  </si>
+  <si>
+    <t>neutral</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>extremely like</t>
   </si>
 </sst>
 </file>
@@ -437,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692DA903-5E6D-4846-8506-29D52B787631}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -446,7 +461,7 @@
     <col min="1" max="1" width="6.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="21.26953125" customWidth="1"/>
   </cols>
@@ -481,8 +496,8 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2">
-        <v>1</v>
+      <c r="D2" t="s">
+        <v>18</v>
       </c>
       <c r="E2">
         <v>200</v>
@@ -501,8 +516,8 @@
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2">
-        <v>2</v>
+      <c r="D3" t="s">
+        <v>17</v>
       </c>
       <c r="E3">
         <v>100</v>
@@ -521,8 +536,8 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4">
-        <v>3</v>
+      <c r="D4" t="s">
+        <v>16</v>
       </c>
       <c r="E4">
         <v>130</v>
@@ -541,8 +556,8 @@
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2">
-        <v>5</v>
+      <c r="D5" t="s">
+        <v>14</v>
       </c>
       <c r="E5">
         <v>120</v>
@@ -561,8 +576,8 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="D6">
-        <v>1</v>
+      <c r="D6" t="s">
+        <v>18</v>
       </c>
       <c r="E6">
         <v>160</v>
@@ -581,8 +596,8 @@
       <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="2">
-        <v>2</v>
+      <c r="D7" t="s">
+        <v>17</v>
       </c>
       <c r="E7">
         <v>170</v>
@@ -601,8 +616,8 @@
       <c r="C8" t="s">
         <v>3</v>
       </c>
-      <c r="D8">
-        <v>4</v>
+      <c r="D8" t="s">
+        <v>15</v>
       </c>
       <c r="E8">
         <v>130</v>
@@ -621,8 +636,8 @@
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="2">
-        <v>3</v>
+      <c r="D9" t="s">
+        <v>16</v>
       </c>
       <c r="E9">
         <v>127</v>
@@ -641,8 +656,8 @@
       <c r="C10" t="s">
         <v>4</v>
       </c>
-      <c r="D10">
-        <v>2</v>
+      <c r="D10" t="s">
+        <v>17</v>
       </c>
       <c r="E10">
         <v>157</v>
@@ -661,8 +676,8 @@
       <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="2">
-        <v>4</v>
+      <c r="D11" t="s">
+        <v>15</v>
       </c>
       <c r="E11">
         <v>182</v>
@@ -681,8 +696,8 @@
       <c r="C12" t="s">
         <v>2</v>
       </c>
-      <c r="D12">
-        <v>5</v>
+      <c r="D12" t="s">
+        <v>16</v>
       </c>
       <c r="E12">
         <v>147</v>
@@ -701,8 +716,8 @@
       <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="2">
-        <v>2</v>
+      <c r="D13" t="s">
+        <v>17</v>
       </c>
       <c r="E13">
         <v>139</v>
@@ -721,8 +736,8 @@
       <c r="C14" t="s">
         <v>4</v>
       </c>
-      <c r="D14">
-        <v>3</v>
+      <c r="D14" t="s">
+        <v>16</v>
       </c>
       <c r="E14">
         <v>128</v>
@@ -741,8 +756,8 @@
       <c r="C15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D15">
-        <v>2</v>
+      <c r="D15" t="s">
+        <v>18</v>
       </c>
       <c r="E15">
         <v>190</v>
@@ -761,8 +776,8 @@
       <c r="C16" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="2">
-        <v>4</v>
+      <c r="D16" t="s">
+        <v>15</v>
       </c>
       <c r="E16">
         <v>170</v>
@@ -781,8 +796,8 @@
       <c r="C17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D17">
-        <v>5</v>
+      <c r="D17" t="s">
+        <v>14</v>
       </c>
       <c r="E17">
         <v>175</v>
@@ -801,8 +816,8 @@
       <c r="C18" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="2">
-        <v>2</v>
+      <c r="D18" t="s">
+        <v>17</v>
       </c>
       <c r="E18">
         <v>184</v>
@@ -821,8 +836,8 @@
       <c r="C19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="2">
-        <v>1</v>
+      <c r="D19" t="s">
+        <v>18</v>
       </c>
       <c r="E19">
         <v>188</v>
@@ -841,8 +856,8 @@
       <c r="C20" t="s">
         <v>2</v>
       </c>
-      <c r="D20">
-        <v>3</v>
+      <c r="D20" t="s">
+        <v>16</v>
       </c>
       <c r="E20">
         <v>193</v>
@@ -861,8 +876,8 @@
       <c r="C21" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="2">
-        <v>4</v>
+      <c r="D21" t="s">
+        <v>15</v>
       </c>
       <c r="E21">
         <v>173</v>
@@ -881,8 +896,8 @@
       <c r="C22" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="2">
-        <v>4</v>
+      <c r="D22" t="s">
+        <v>16</v>
       </c>
       <c r="E22">
         <v>170</v>
@@ -898,8 +913,8 @@
       <c r="C23" t="s">
         <v>2</v>
       </c>
-      <c r="D23">
-        <v>5</v>
+      <c r="D23" t="s">
+        <v>15</v>
       </c>
       <c r="E23">
         <v>175</v>
@@ -915,8 +930,8 @@
       <c r="C24" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="2">
-        <v>2</v>
+      <c r="D24" t="s">
+        <v>17</v>
       </c>
       <c r="E24">
         <v>184</v>
@@ -932,8 +947,8 @@
       <c r="C25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="2">
-        <v>1</v>
+      <c r="D25" t="s">
+        <v>18</v>
       </c>
       <c r="E25">
         <v>188</v>
@@ -949,8 +964,8 @@
       <c r="C26" t="s">
         <v>2</v>
       </c>
-      <c r="D26">
-        <v>3</v>
+      <c r="D26" t="s">
+        <v>16</v>
       </c>
       <c r="E26">
         <v>193</v>
@@ -966,15 +981,15 @@
       <c r="C27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="2">
-        <v>4</v>
+      <c r="D27" t="s">
+        <v>14</v>
       </c>
       <c r="E27">
         <v>173</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F27" xr:uid="{A47EF354-59F2-4416-9BA5-FADEA41D08F3}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Feature_Engineering/feature_encoding.xlsx
+++ b/Feature_Engineering/feature_encoding.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\E\Github\Data_Files\Feature_Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC34206-57DA-4561-A222-92F6FDFA514A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4988976A-B678-497A-8E12-02FFDFB0775B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0EBDB0EB-C638-42B7-9A29-1581CE7863BB}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$27</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="23">
   <si>
     <t>N</t>
   </si>
@@ -85,6 +85,18 @@
   </si>
   <si>
     <t>extremely like</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>phd</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>bs</t>
   </si>
 </sst>
 </file>
@@ -450,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692DA903-5E6D-4846-8506-29D52B787631}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -462,11 +474,12 @@
     <col min="2" max="2" width="21.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="21.26953125" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="21.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -480,13 +493,16 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -499,14 +515,17 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2">
         <v>200</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -519,14 +538,17 @@
       <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3">
         <v>100</v>
       </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -539,14 +561,17 @@
       <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4">
         <v>130</v>
       </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -559,14 +584,17 @@
       <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5">
         <v>120</v>
       </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -579,14 +607,17 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6">
         <v>160</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -599,14 +630,17 @@
       <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7">
         <v>170</v>
       </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -619,14 +653,17 @@
       <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8">
         <v>130</v>
       </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -639,14 +676,17 @@
       <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9">
         <v>127</v>
       </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -659,14 +699,17 @@
       <c r="D10" t="s">
         <v>17</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10">
         <v>157</v>
       </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -679,14 +722,17 @@
       <c r="D11" t="s">
         <v>15</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11">
         <v>182</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -699,14 +745,17 @@
       <c r="D12" t="s">
         <v>16</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12">
         <v>147</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -719,14 +768,17 @@
       <c r="D13" t="s">
         <v>17</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13">
         <v>139</v>
       </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -739,14 +791,17 @@
       <c r="D14" t="s">
         <v>16</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14">
         <v>128</v>
       </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -759,14 +814,17 @@
       <c r="D15" t="s">
         <v>18</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15">
         <v>190</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -779,14 +837,17 @@
       <c r="D16" t="s">
         <v>15</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16">
         <v>170</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -799,14 +860,17 @@
       <c r="D17" t="s">
         <v>14</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17">
         <v>175</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -819,14 +883,17 @@
       <c r="D18" t="s">
         <v>17</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18">
         <v>184</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -839,14 +906,17 @@
       <c r="D19" t="s">
         <v>18</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19">
         <v>188</v>
       </c>
-      <c r="F19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -859,14 +929,17 @@
       <c r="D20" t="s">
         <v>16</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20">
         <v>193</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -879,14 +952,17 @@
       <c r="D21" t="s">
         <v>15</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21">
         <v>173</v>
       </c>
-      <c r="F21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -899,11 +975,14 @@
       <c r="D22" t="s">
         <v>16</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22">
         <v>170</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -916,11 +995,14 @@
       <c r="D23" t="s">
         <v>15</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23">
         <v>175</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -933,11 +1015,14 @@
       <c r="D24" t="s">
         <v>17</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24">
         <v>184</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -950,11 +1035,14 @@
       <c r="D25" t="s">
         <v>18</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25">
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -967,11 +1055,14 @@
       <c r="D26" t="s">
         <v>16</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26">
         <v>193</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -984,7 +1075,10 @@
       <c r="D27" t="s">
         <v>14</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27">
         <v>173</v>
       </c>
     </row>

--- a/Feature_Engineering/feature_encoding.xlsx
+++ b/Feature_Engineering/feature_encoding.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\E\Github\Data_Files\Feature_Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4988976A-B678-497A-8E12-02FFDFB0775B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E980A7-DDCA-4406-B287-BF7AD932E561}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0EBDB0EB-C638-42B7-9A29-1581CE7863BB}"/>
+    <workbookView xWindow="7320" yWindow="0" windowWidth="11880" windowHeight="9310" xr2:uid="{0EBDB0EB-C638-42B7-9A29-1581CE7863BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,9 +87,6 @@
     <t>extremely like</t>
   </si>
   <si>
-    <t>Education</t>
-  </si>
-  <si>
     <t>phd</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
   </si>
   <si>
     <t>bs</t>
+  </si>
+  <si>
+    <t>EDUCATION</t>
   </si>
 </sst>
 </file>
@@ -464,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692DA903-5E6D-4846-8506-29D52B787631}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -493,7 +493,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>10</v>
@@ -516,7 +516,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2">
         <v>200</v>
@@ -539,7 +539,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -562,7 +562,7 @@
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4">
         <v>130</v>
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5">
         <v>120</v>
@@ -608,7 +608,7 @@
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6">
         <v>160</v>
@@ -631,7 +631,7 @@
         <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7">
         <v>170</v>
@@ -654,7 +654,7 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8">
         <v>130</v>
@@ -677,7 +677,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9">
         <v>127</v>
@@ -700,7 +700,7 @@
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10">
         <v>157</v>
@@ -723,7 +723,7 @@
         <v>15</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11">
         <v>182</v>
@@ -746,7 +746,7 @@
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12">
         <v>147</v>
@@ -769,7 +769,7 @@
         <v>17</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13">
         <v>139</v>
@@ -792,7 +792,7 @@
         <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F14">
         <v>128</v>
@@ -815,7 +815,7 @@
         <v>18</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15">
         <v>190</v>
@@ -838,7 +838,7 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16">
         <v>170</v>
@@ -861,7 +861,7 @@
         <v>14</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F17">
         <v>175</v>
@@ -884,7 +884,7 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F18">
         <v>184</v>
@@ -907,7 +907,7 @@
         <v>18</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F19">
         <v>188</v>
@@ -930,7 +930,7 @@
         <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F20">
         <v>193</v>
@@ -953,7 +953,7 @@
         <v>15</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F21">
         <v>173</v>
@@ -976,7 +976,7 @@
         <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F22">
         <v>170</v>
@@ -996,7 +996,7 @@
         <v>15</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F23">
         <v>175</v>
@@ -1016,7 +1016,7 @@
         <v>17</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F24">
         <v>184</v>
@@ -1036,7 +1036,7 @@
         <v>18</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F25">
         <v>188</v>
@@ -1056,7 +1056,7 @@
         <v>16</v>
       </c>
       <c r="E26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F26">
         <v>193</v>
@@ -1076,7 +1076,7 @@
         <v>14</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F27">
         <v>173</v>

--- a/Feature_Engineering/feature_encoding.xlsx
+++ b/Feature_Engineering/feature_encoding.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\E\Github\Data_Files\Feature_Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E980A7-DDCA-4406-B287-BF7AD932E561}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8000011A-FA02-45DE-ABA5-5361E553FB1D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7320" yWindow="0" windowWidth="11880" windowHeight="9310" xr2:uid="{0EBDB0EB-C638-42B7-9A29-1581CE7863BB}"/>
   </bookViews>
@@ -465,7 +465,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
